--- a/biology/Zoologie/Jiutaisaurus/Jiutaisaurus.xlsx
+++ b/biology/Zoologie/Jiutaisaurus/Jiutaisaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jiutaisaurus xidiensis
-Jiutaisaurus est un genre de dinosaures sauropodes découvert dans la formation géologique de Quantou (en), en Chine. Cette formation est datée du Crétacé, de l'Aptien au Cénomanien inférieur[2].
-L'espèce type et seule espèce, Jiutaisaurus xidiensis, a été décrite par W.-h. Wu, Z.-m. Dong, Y.-w. Sun, C.-t. Li et T. Li. en 2006[1].
+Jiutaisaurus est un genre de dinosaures sauropodes découvert dans la formation géologique de Quantou (en), en Chine. Cette formation est datée du Crétacé, de l'Aptien au Cénomanien inférieur.
+L'espèce type et seule espèce, Jiutaisaurus xidiensis, a été décrite par W.-h. Wu, Z.-m. Dong, Y.-w. Sun, C.-t. Li et T. Li. en 2006.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est seulement connue par dix-huit vertèbres caudales en connexion anatomique. Ces fossiles ont été découverts dans la province de Jilin du nord-est de la Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est seulement connue par dix-huit vertèbres caudales en connexion anatomique. Ces fossiles ont été découverts dans la province de Jilin du nord-est de la Chine.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jainosaurus serait un Titanosauria[1] ou un Titanosauriformes[3]  basal.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jainosaurus serait un Titanosauria ou un Titanosauriformes  basal.
 </t>
         </is>
       </c>
